--- a/documents/Источники.xlsx
+++ b/documents/Источники.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Agression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\emotions_aggressive\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A047D9E4-0EB0-47DD-B740-90EEFCC4B024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279CDC82-359A-4C67-BCD9-B5E1ABFD6403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-9120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -579,6 +579,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -586,11 +591,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -874,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,15 +912,15 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="17"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1139,7 +1139,7 @@
       <c r="L13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="16" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1158,10 +1158,10 @@
         <v>35</v>
       </c>
       <c r="L14" s="2"/>
-      <c r="M14" s="13"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="G15" s="17"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="2">
         <v>11</v>
       </c>
@@ -1490,7 +1490,7 @@
       </c>
     </row>
     <row r="31" spans="2:13" ht="210" x14ac:dyDescent="0.25">
-      <c r="G31" s="17"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="1">
         <v>27</v>
       </c>
@@ -1500,7 +1500,7 @@
       <c r="J31" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="K31" s="18" t="s">
+      <c r="K31" s="15" t="s">
         <v>134</v>
       </c>
       <c r="L31" s="4" t="s">
@@ -1511,7 +1511,7 @@
       </c>
     </row>
     <row r="32" spans="2:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="G32" s="17"/>
+      <c r="G32" s="14"/>
       <c r="H32" s="1">
         <v>28</v>
       </c>
@@ -1521,7 +1521,7 @@
       <c r="J32" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="K32" s="18" t="s">
+      <c r="K32" s="15" t="s">
         <v>139</v>
       </c>
       <c r="L32" s="4" t="s">

--- a/documents/Источники.xlsx
+++ b/documents/Источники.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\emotions_aggressive\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279CDC82-359A-4C67-BCD9-B5E1ABFD6403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD7D67B-4910-46DB-8CE8-A65C8AAFF2C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-9120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -874,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documents/Источники.xlsx
+++ b/documents/Источники.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\emotions_aggressive\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD7D67B-4910-46DB-8CE8-A65C8AAFF2C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144A5CC7-11B5-4BA7-B126-E059CE8E317B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-9120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -874,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
